--- a/lesions/tests/data_id.xlsx
+++ b/lesions/tests/data_id.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>image #</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Paramaters**</t>
   </si>
   <si>
-    <t>(39, 25, 5, 2, 0)</t>
-  </si>
-  <si>
     <t># red</t>
   </si>
   <si>
@@ -48,10 +45,25 @@
     <t># Miss ID</t>
   </si>
   <si>
-    <t>(25, 19 ,4, 3, 0)</t>
-  </si>
-  <si>
-    <t>(25, 19, 4, 3, 0)</t>
+    <t>(25, 19 ,4, 3)</t>
+  </si>
+  <si>
+    <t>(25, 19, 4, 3)</t>
+  </si>
+  <si>
+    <t>(39, 25, 5, 2))</t>
+  </si>
+  <si>
+    <t>(61, 61, 5, 8)</t>
+  </si>
+  <si>
+    <t>(39, 25, 5, 2)</t>
+  </si>
+  <si>
+    <t>red hits</t>
+  </si>
+  <si>
+    <t>red misses</t>
   </si>
 </sst>
 </file>
@@ -75,21 +87,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -97,33 +103,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -406,240 +395,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N13"/>
+  <dimension ref="B2:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="15" style="4" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="11.42578125" style="4" customWidth="1"/>
-    <col min="8" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="11" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="J11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J15" s="1">
         <v>5</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="K15" s="1">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J16" s="1">
         <v>4</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="L20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2</v>
-      </c>
-      <c r="I3" s="4">
-        <v>5</v>
-      </c>
-      <c r="J3" s="4">
-        <v>2</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4">
-        <v>2</v>
-      </c>
-      <c r="M3" s="4">
-        <v>5</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="4">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>3</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4">
-        <v>5</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>3</v>
-      </c>
-      <c r="L5" s="4">
-        <v>2</v>
-      </c>
-      <c r="M5" s="4">
-        <v>5</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/lesions/tests/data_id.xlsx
+++ b/lesions/tests/data_id.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>image #</t>
   </si>
@@ -60,16 +60,58 @@
     <t>(39, 25, 5, 2)</t>
   </si>
   <si>
-    <t>red hits</t>
-  </si>
-  <si>
-    <t>red misses</t>
+    <t>Correct rejection</t>
+  </si>
+  <si>
+    <t>False ID</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>PPV</t>
+  </si>
+  <si>
+    <t>Dark hits</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Red misses</t>
+  </si>
+  <si>
+    <t>Red hits</t>
+  </si>
+  <si>
+    <t>Dark misses</t>
+  </si>
+  <si>
+    <t># Miss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,12 +149,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -395,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O27"/>
+  <dimension ref="B2:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,17 +451,17 @@
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="9" width="11.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="11" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="6.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -435,8 +480,11 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>6</v>
@@ -444,8 +492,21 @@
       <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>SUM(K3:K9)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -464,17 +525,33 @@
       <c r="G3" s="1">
         <v>2</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>(31-Q4-Q2)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -493,17 +570,33 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
       <c r="J4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>SUM(L3:L9)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -522,17 +615,33 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>SUM(M3:M9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -551,17 +660,23 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -580,17 +695,33 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>(Q2+Q3)/(Q2+Q3+Q4+Q5)</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -609,20 +740,33 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>Q2/(Q2+Q5)</f>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -641,29 +785,42 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
       <c r="J9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10"/>
       <c r="C10"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <f>SUM(D3:D9)</f>
+        <v>31</v>
+      </c>
+      <c r="E10" s="2">
+        <f>SUM(E3:E9)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11"/>
       <c r="C11"/>
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>6</v>
@@ -671,89 +828,197 @@
       <c r="L11" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>SUM(K12:K18)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12"/>
       <c r="C12"/>
+      <c r="I12">
+        <v>0</v>
+      </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>(31-Q13-Q11)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="C13"/>
+      <c r="I13">
+        <v>1</v>
+      </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="1">
+        <f>SUM(L12:L18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>2</v>
+      </c>
       <c r="J14" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>SUM(M12:M18)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>3</v>
+      </c>
       <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>3</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="3">
+        <f>(Q11+Q12)/(Q11+Q12+Q13+Q14)</f>
+        <v>0.91176470588235292</v>
+      </c>
+    </row>
+    <row r="17" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I17">
         <v>5</v>
       </c>
-      <c r="K15" s="1">
-        <v>5</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J16" s="1">
-        <v>4</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>Q11/(Q11+Q14)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>6</v>
+      </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
       <c r="J20" s="1" t="s">
         <v>5</v>
       </c>
@@ -763,8 +1028,14 @@
       <c r="L20" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>0</v>
+      </c>
       <c r="J21" s="1">
         <v>2</v>
       </c>
@@ -775,7 +1046,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>1</v>
+      </c>
       <c r="J22" s="1">
         <v>0</v>
       </c>
@@ -786,7 +1060,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>2</v>
+      </c>
       <c r="J23" s="1">
         <v>2</v>
       </c>
@@ -797,7 +1074,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>3</v>
+      </c>
       <c r="J24" s="1">
         <v>1</v>
       </c>
@@ -808,7 +1088,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>4</v>
+      </c>
       <c r="J25" s="1">
         <v>0</v>
       </c>
@@ -819,7 +1102,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>5</v>
+      </c>
       <c r="J26" s="1">
         <v>1</v>
       </c>
@@ -830,7 +1116,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>6</v>
+      </c>
       <c r="J27" s="1">
         <v>0</v>
       </c>
@@ -843,5 +1132,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>